--- a/assets/form/LKP/APSLP.xlsx
+++ b/assets/form/LKP/APSLP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\flutterDartProjects\nov1\assets\form\LKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BC31FD-8CF1-492C-977A-8693ABE39DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CAC101-3A21-4E31-BE85-956F33E015BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24735" yWindow="2820" windowWidth="15375" windowHeight="7875" xr2:uid="{ED80EA13-F7F6-4071-8D9D-B3C3438FC11D}"/>
+    <workbookView xWindow="26745" yWindow="2130" windowWidth="15375" windowHeight="7875" xr2:uid="{ED80EA13-F7F6-4071-8D9D-B3C3438FC11D}"/>
   </bookViews>
   <sheets>
     <sheet name="APSLP" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t xml:space="preserve">(ФИО) </t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t xml:space="preserve">приемки системы лакокрасочных покрытий, выполненных по объекту </t>
-  </si>
-  <si>
-    <t xml:space="preserve">«_____» _____________ 20____ г. </t>
   </si>
   <si>
     <t xml:space="preserve">от </t>
@@ -570,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DC6343-38D7-472F-80EC-9D06DE26875A}">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,21 +579,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F4" s="6" t="s">
-        <v>36</v>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
